--- a/Temp/WebAPI.xlsx
+++ b/Temp/WebAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadvar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BCF0F-F20C-4911-A1D4-F08DC0C819E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055DF60-01B9-4044-90FD-E0E96247651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>TroubleShooting</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>TavanirGetPlanOutageList</t>
+  </si>
+  <si>
+    <t>HomaController</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -474,22 +483,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +507,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -516,79 +576,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -879,7 +891,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,42 +908,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -939,345 +951,353 @@
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="32">
         <v>6</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="32">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="4:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G15" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="4:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
